--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510774.8869500184</v>
+        <v>508192.8375562982</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>362.0585872021362</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>313.2468889818957</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>262.2941627963334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>131.7910240551134</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>134.2665795698865</v>
+        <v>19.12460571676507</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>281.080996133103</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>376.649553485851</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -950,13 +950,13 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>178.9448201061193</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.90724687469171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>156.7307547386656</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>178.1856324077872</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>76.01093639783198</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
@@ -1348,16 +1348,16 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>6.154579225329538</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977093</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G16" t="n">
-        <v>120.4832454124056</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="17">
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G19" t="n">
-        <v>11.81332727248861</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>28.23631843387907</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637036</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>64.36993339924405</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7194509233173</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534457</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1186.7672033678</v>
+        <v>368.2108542944315</v>
       </c>
       <c r="C2" t="n">
-        <v>821.0514587191778</v>
+        <v>368.2108542944315</v>
       </c>
       <c r="D2" t="n">
-        <v>462.7857601124273</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E2" t="n">
-        <v>462.7857601124273</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F2" t="n">
         <v>51.79985532281972</v>
@@ -4328,28 +4328,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1166.340726290105</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1693.744037126425</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1968.860256443059</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1929.675190613726</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1576.906535343612</v>
+        <v>1518.415784595445</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.906535343612</v>
+        <v>1144.950026334365</v>
       </c>
       <c r="Y2" t="n">
-        <v>1186.7672033678</v>
+        <v>754.8106943585533</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>532.9594726600656</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648431</v>
+        <v>1173.98268227996</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081764</v>
+        <v>1815.005891899853</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.4778434719252</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="C4" t="n">
-        <v>462.5416605440183</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="D4" t="n">
-        <v>462.5416605440183</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="E4" t="n">
-        <v>314.6285669616252</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637149</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>477.5222156304092</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.517821155236</v>
+        <v>222.8377274245223</v>
       </c>
       <c r="W4" t="n">
-        <v>767.1006511182752</v>
+        <v>222.8377274245223</v>
       </c>
       <c r="X4" t="n">
-        <v>631.4778434719252</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.4778434719252</v>
+        <v>203.5199438722344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.388778642423</v>
+        <v>1127.66239870951</v>
       </c>
       <c r="C5" t="n">
-        <v>913.4262617020117</v>
+        <v>1127.66239870951</v>
       </c>
       <c r="D5" t="n">
-        <v>913.4262617020117</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E5" t="n">
-        <v>913.4262617020117</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
         <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961806</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618235</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W5" t="n">
-        <v>1672.528110618235</v>
+        <v>1904.401570749443</v>
       </c>
       <c r="X5" t="n">
-        <v>1672.528110618235</v>
+        <v>1904.401570749443</v>
       </c>
       <c r="Y5" t="n">
-        <v>1282.388778642423</v>
+        <v>1514.262238773632</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.7727414285552</v>
+        <v>369.3835738178448</v>
       </c>
       <c r="C7" t="n">
-        <v>768.7727414285552</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="D7" t="n">
-        <v>768.7727414285552</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482517</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>305.9935116101411</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1364.109964369369</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916873</v>
+        <v>1141.175389911351</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.294864927271</v>
+        <v>852.057612921749</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.294864927271</v>
+        <v>597.3731247158621</v>
       </c>
       <c r="W7" t="n">
-        <v>1059.294864927271</v>
+        <v>597.3731247158621</v>
       </c>
       <c r="X7" t="n">
-        <v>831.3053140292539</v>
+        <v>369.3835738178448</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.7727414285552</v>
+        <v>369.3835738178448</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>929.6201233723093</v>
+        <v>732.4770250124395</v>
       </c>
       <c r="C8" t="n">
-        <v>929.6201233723093</v>
+        <v>732.4770250124395</v>
       </c>
       <c r="D8" t="n">
-        <v>929.6201233723093</v>
+        <v>374.211326405689</v>
       </c>
       <c r="E8" t="n">
-        <v>929.6201233723093</v>
+        <v>374.211326405689</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G8" t="n">
         <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135513</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
         <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961806</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618235</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>1319.759455348121</v>
+        <v>1492.542623337641</v>
       </c>
       <c r="X8" t="n">
-        <v>1319.759455348121</v>
+        <v>1119.076865076561</v>
       </c>
       <c r="Y8" t="n">
-        <v>929.6201233723093</v>
+        <v>1119.076865076561</v>
       </c>
     </row>
     <row r="9">
@@ -4866,43 +4866,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682819</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845967</v>
+        <v>1067.800081832727</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1434.105971325053</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802665</v>
+        <v>1824.515532650795</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518196</v>
+        <v>2159.444213366326</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.8196420359583</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="C10" t="n">
-        <v>452.8834591080514</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="D10" t="n">
-        <v>452.8834591080514</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>452.8834591080514</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225446</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317425</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1570.204946519705</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1570.204946519705</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1347.270372061687</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1058.152595072085</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>803.468106866198</v>
+        <v>836.360290469252</v>
       </c>
       <c r="W10" t="n">
-        <v>803.468106866198</v>
+        <v>830.143543777</v>
       </c>
       <c r="X10" t="n">
-        <v>803.468106866198</v>
+        <v>602.1539928789826</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.468106866198</v>
+        <v>381.3614137354525</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998269</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1053.171308869725</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C16" t="n">
-        <v>884.2351259418183</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D16" t="n">
-        <v>734.1184865294825</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E16" t="n">
-        <v>586.2053929470894</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F16" t="n">
-        <v>439.315445449179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.601903741512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.612352843495</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.819773699965</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909563</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085632</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8360202106528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5893,16 +5893,16 @@
         <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>114.9565346495158</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
-        <v>114.9565346495158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>114.9565346495158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6081,7 +6081,7 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773688</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,61 +6689,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>632.7243904253734</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2315.933335172869</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.33187019581</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>814.3728552556131</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>224.169903637106</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
-        <v>87.99713246344908</v>
+        <v>91.51343072300233</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>191.4694788103613</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>220.1297156654631</v>
+        <v>36.65812069213297</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>41.4361526387873</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.28773869504415</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>65.45809567380149</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667982</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295385</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G16" t="n">
-        <v>45.04089287986321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G19" t="n">
-        <v>153.7108110197802</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>60.33736343303703</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.421048022933</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>137.2878198583898</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>102.8768876993838</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.30683507832725</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864913</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>985417.3020093694</v>
+        <v>985417.3020093695</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>354580.0968631201</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855346</v>
@@ -26329,31 +26329,31 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="L2" t="n">
-        <v>383394.6348527529</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457504</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117230.9551024947</v>
+        <v>117230.9551024948</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26442,22 +26442,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695114</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695059</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695064</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.48053169506</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791678.8690117641</v>
+        <v>-791865.2624003032</v>
       </c>
       <c r="C6" t="n">
-        <v>-5317.363191115204</v>
+        <v>-5317.363191114971</v>
       </c>
       <c r="D6" t="n">
-        <v>167446.9965987768</v>
+        <v>167446.9965987771</v>
       </c>
       <c r="E6" t="n">
-        <v>-224904.2432485996</v>
+        <v>-224938.9811740356</v>
       </c>
       <c r="F6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.8865717151</v>
       </c>
       <c r="G6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.8865717151</v>
       </c>
       <c r="H6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.886571715</v>
       </c>
       <c r="I6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.8865717151</v>
       </c>
       <c r="J6" t="n">
-        <v>106570.6076711028</v>
+        <v>106535.869745667</v>
       </c>
       <c r="K6" t="n">
-        <v>275984.6244971507</v>
+        <v>275949.886571715</v>
       </c>
       <c r="L6" t="n">
-        <v>275984.6244971507</v>
+        <v>275949.8865717153</v>
       </c>
       <c r="M6" t="n">
-        <v>145100.1675929154</v>
+        <v>145065.4296674798</v>
       </c>
       <c r="N6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.8865717149</v>
       </c>
       <c r="O6" t="n">
-        <v>275984.6244971506</v>
+        <v>275949.8865717149</v>
       </c>
       <c r="P6" t="n">
-        <v>275984.6244971505</v>
+        <v>275949.8865717148</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918288</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.214304568871398</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>217.4499446622996</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>91.44307581915066</v>
+        <v>206.5850496722721</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>73.60204548757991</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>30.22649225586048</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>15.54034922797183</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.6774064774031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>250.1452910030459</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>171.0553363096258</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.08921222271239</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.3684191112615</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.933294279645717e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179235</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315581</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,10 +32081,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932938</v>
+        <v>537.6437863443696</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>532.7306170063841</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34717,10 +34717,10 @@
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>329.2142554447206</v>
+        <v>332.7305537042739</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>561.4754277925082</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153411</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171363</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821471</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025569</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>472.1264104786135</v>
+        <v>288.6548155052832</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297624</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225508</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978366</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>20.54758114884936</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
